--- a/biology/Zoologie/Hirondelle_du_désert/Hirondelle_du_désert.xlsx
+++ b/biology/Zoologie/Hirondelle_du_désert/Hirondelle_du_désert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_du_d%C3%A9sert</t>
+          <t>Hirondelle_du_désert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ptyonoprogne obsoleta
 L'Hirondelle du désert (Ptyonoprogne obsoleta) est une espèce de petits passereaux de la famille des Hirundinidae qui réside en Afrique du Nord et en Asie de l'Ouest jusqu'au Pakistan.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_du_d%C3%A9sert</t>
+          <t>Hirondelle_du_désert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 12 à 13 cm de longueur, avec un plumage principalement brun, des tons plus pâles sur le haut de la poitrine et les tectrices sous les ailes et avec des «fenêtres» blanches sur la queue déployée en vol. Les deux sexes sont semblables en apparence, mais les jeunes ont des franges pâles aux parties supérieures et sur les rémiges. Autrefois on la considérait comme une sous-espèce de l'Hirondelle isabelline, répandue dans l'Afrique centrale et australe, mais l'Hirondelle désert est plus petite et plus pâle, avec une gorge plus blanche.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_du_d%C3%A9sert</t>
+          <t>Hirondelle_du_désert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers l'Afrique du Nord, le pourtour de la mer Rouge et le Moyen-Orient.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hirondelle_du_d%C3%A9sert</t>
+          <t>Hirondelle_du_désert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se reproduit principalement dans les montagnes, mais aussi à des altitudes inférieures, en particulier dans les zones rocheuses et autour des villes. Contrairement à la plupart des hirondelles, elle se trouve souvent loin de l'eau.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hirondelle_du_d%C3%A9sert</t>
+          <t>Hirondelle_du_désert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se trouve souvent le long des falaises, où elle chasse les insectes volants, se servant d'un vol lent et souvent plané. Son cri est un gazouillement doux.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hirondelle_du_d%C3%A9sert</t>
+          <t>Hirondelle_du_désert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid de cette hirondelle prend la forme d'un bol sur une surface horizontale ou d'un quart de sphère contre une paroi rocheuse verticale ou un mur. Elle construit le nid avec des boulettes de boue, le tapissant d'herbes ou de plumes, sur des sites naturels sous des surplombs de falaises, ou sur des structures artificielles comme des bâtiments et des ponts.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hirondelle_du_d%C3%A9sert</t>
+          <t>Hirondelle_du_désert</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes formes de ce taxon étaient auparavant considérées comme des sous-espèces de l'Hirondelle isabelline (Ptyonoprogne fuligula).
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hirondelle_du_d%C3%A9sert</t>
+          <t>Hirondelle_du_désert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par sept sous-espèces :
 Ptyonoprogne obsoleta arabica (Reichenow, 1905) ;
